--- a/Cahier des charges/Documentation/PV de Recettes/PV_de_recette_Evan_Manset.xlsx
+++ b/Cahier des charges/Documentation/PV de Recettes/PV_de_recette_Evan_Manset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29525"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentphilipps/Documents/Laurent/cours/SIO2 AP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{E2B1DB1A-A06B-D049-9D66-51711FA224C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859F7BD5-08B4-43BD-ABA8-534AF224A34E}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{E2B1DB1A-A06B-D049-9D66-51711FA224C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F5D246-F7FB-4109-9B75-2A9EAC4301F1}"/>
   <bookViews>
     <workbookView xWindow="5620" yWindow="3980" windowWidth="28040" windowHeight="17440" xr2:uid="{70F74D25-83DE-3C42-9F7E-4656740B92F4}"/>
   </bookViews>
@@ -104,13 +104,13 @@
     <t>Choix du véhicule</t>
   </si>
   <si>
-    <t>Type de véhicule, nombre de personnes</t>
+    <t>Type de véhicule</t>
   </si>
   <si>
     <t>Véhicule compatible proposé</t>
   </si>
   <si>
-    <t>Trottinette et vélo proposés</t>
+    <t>Vélo proposés</t>
   </si>
   <si>
     <t>Saisie des informations</t>
@@ -134,7 +134,7 @@
     <t>Numéro de réservation généré</t>
   </si>
   <si>
-    <t>Réservation n° RM2025-124 générée</t>
+    <t>Réservation n°1 générée / Mise à jour BBD effectuée</t>
   </si>
   <si>
     <t>Mise à jour du véhicule</t>
@@ -146,7 +146,7 @@
     <t>Véhicule passe au statut « réservé »</t>
   </si>
   <si>
-    <t>Mise à jour effectuée</t>
+    <t>Mise à jour de la BDD effectuée</t>
   </si>
   <si>
     <t xml:space="preserve">Testé par </t>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7616B22-8F2E-6E45-9C21-07CCD7D2CE1B}">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1022,9 +1022,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,16 +1169,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0860A19A-67DF-43E4-A5CA-6968D003E7DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C018D786-C58B-4C7A-8149-F340EA9042F0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1183,5 +1183,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C018D786-C58B-4C7A-8149-F340EA9042F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0860A19A-67DF-43E4-A5CA-6968D003E7DF}"/>
 </file>